--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Efna2-Epha2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Efna2-Epha2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,10 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -89,12 +98,6 @@
   </si>
   <si>
     <t>Epha2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.15103510374221</v>
+        <v>1.232994333333333</v>
       </c>
       <c r="H2">
-        <v>2.15103510374221</v>
+        <v>3.698983</v>
       </c>
       <c r="I2">
-        <v>0.4638108540709669</v>
+        <v>0.1643301600451615</v>
       </c>
       <c r="J2">
-        <v>0.4638108540709669</v>
+        <v>0.1643301600451615</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.346324873991859</v>
+        <v>12.64154566666667</v>
       </c>
       <c r="N2">
-        <v>9.346324873991859</v>
+        <v>37.924637</v>
       </c>
       <c r="O2">
-        <v>0.4476158920754711</v>
+        <v>0.5019409384896431</v>
       </c>
       <c r="P2">
-        <v>0.4476158920754711</v>
+        <v>0.5019409384896429</v>
       </c>
       <c r="Q2">
-        <v>20.10427289493548</v>
+        <v>15.58695417157456</v>
       </c>
       <c r="R2">
-        <v>20.10427289493548</v>
+        <v>140.282587544171</v>
       </c>
       <c r="S2">
-        <v>0.207609109199262</v>
+        <v>0.08248403475522159</v>
       </c>
       <c r="T2">
-        <v>0.207609109199262</v>
+        <v>0.08248403475522156</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.15103510374221</v>
+        <v>1.232994333333333</v>
       </c>
       <c r="H3">
-        <v>2.15103510374221</v>
+        <v>3.698983</v>
       </c>
       <c r="I3">
-        <v>0.4638108540709669</v>
+        <v>0.1643301600451615</v>
       </c>
       <c r="J3">
-        <v>0.4638108540709669</v>
+        <v>0.1643301600451615</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.21120802201027</v>
+        <v>1.291159666666667</v>
       </c>
       <c r="N3">
-        <v>1.21120802201027</v>
+        <v>3.873479</v>
       </c>
       <c r="O3">
-        <v>0.05800739505318912</v>
+        <v>0.05126634921989955</v>
       </c>
       <c r="P3">
-        <v>0.05800739505318912</v>
+        <v>0.05126634921989955</v>
       </c>
       <c r="Q3">
-        <v>2.605350973278258</v>
+        <v>1.591992552428556</v>
       </c>
       <c r="R3">
-        <v>2.605350973278258</v>
+        <v>14.327932971857</v>
       </c>
       <c r="S3">
-        <v>0.02690445944205163</v>
+        <v>0.008424607372237231</v>
       </c>
       <c r="T3">
-        <v>0.02690445944205163</v>
+        <v>0.008424607372237231</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.15103510374221</v>
+        <v>1.232994333333333</v>
       </c>
       <c r="H4">
-        <v>2.15103510374221</v>
+        <v>3.698983</v>
       </c>
       <c r="I4">
-        <v>0.4638108540709669</v>
+        <v>0.1643301600451615</v>
       </c>
       <c r="J4">
-        <v>0.4638108540709669</v>
+        <v>0.1643301600451615</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.838170222010083</v>
+        <v>0.97959</v>
       </c>
       <c r="N4">
-        <v>0.838170222010083</v>
+        <v>2.93877</v>
       </c>
       <c r="O4">
-        <v>0.04014180083555115</v>
+        <v>0.03889526936817373</v>
       </c>
       <c r="P4">
-        <v>0.04014180083555115</v>
+        <v>0.03889526936817372</v>
       </c>
       <c r="Q4">
-        <v>1.80293357045509</v>
+        <v>1.20782891899</v>
       </c>
       <c r="R4">
-        <v>1.80293357045509</v>
+        <v>10.87046027091</v>
       </c>
       <c r="S4">
-        <v>0.01861820292948364</v>
+        <v>0.006391665840271656</v>
       </c>
       <c r="T4">
-        <v>0.01861820292948364</v>
+        <v>0.006391665840271654</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.15103510374221</v>
+        <v>1.232994333333333</v>
       </c>
       <c r="H5">
-        <v>2.15103510374221</v>
+        <v>3.698983</v>
       </c>
       <c r="I5">
-        <v>0.4638108540709669</v>
+        <v>0.1643301600451615</v>
       </c>
       <c r="J5">
-        <v>0.4638108540709669</v>
+        <v>0.1643301600451615</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.664244299965148</v>
+        <v>1.079938333333333</v>
       </c>
       <c r="N5">
-        <v>0.664244299965148</v>
+        <v>3.239815</v>
       </c>
       <c r="O5">
-        <v>0.03181210891912396</v>
+        <v>0.04287966636655804</v>
       </c>
       <c r="P5">
-        <v>0.03181210891912396</v>
+        <v>0.04287966636655803</v>
       </c>
       <c r="Q5">
-        <v>1.428812806685704</v>
+        <v>1.331557845349444</v>
       </c>
       <c r="R5">
-        <v>1.428812806685704</v>
+        <v>11.984020608145</v>
       </c>
       <c r="S5">
-        <v>0.01475480140757751</v>
+        <v>0.00704642243669961</v>
       </c>
       <c r="T5">
-        <v>0.01475480140757751</v>
+        <v>0.007046422436699608</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.15103510374221</v>
+        <v>1.232994333333333</v>
       </c>
       <c r="H6">
-        <v>2.15103510374221</v>
+        <v>3.698983</v>
       </c>
       <c r="I6">
-        <v>0.4638108540709669</v>
+        <v>0.1643301600451615</v>
       </c>
       <c r="J6">
-        <v>0.4638108540709669</v>
+        <v>0.1643301600451615</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>8.82028726416392</v>
+        <v>0.265959</v>
       </c>
       <c r="N6">
-        <v>8.82028726416392</v>
+        <v>0.7978769999999999</v>
       </c>
       <c r="O6">
-        <v>0.4224228031166647</v>
+        <v>0.01056007814074267</v>
       </c>
       <c r="P6">
-        <v>0.4224228031166647</v>
+        <v>0.01056007814074267</v>
       </c>
       <c r="Q6">
-        <v>18.97274753030693</v>
+        <v>0.327925939899</v>
       </c>
       <c r="R6">
-        <v>18.97274753030693</v>
+        <v>2.951333459091</v>
       </c>
       <c r="S6">
-        <v>0.1959242810925922</v>
+        <v>0.001735339330957655</v>
       </c>
       <c r="T6">
-        <v>0.1959242810925922</v>
+        <v>0.001735339330957655</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.5805017091169939</v>
+        <v>1.232994333333333</v>
       </c>
       <c r="H7">
-        <v>0.5805017091169939</v>
+        <v>3.698983</v>
       </c>
       <c r="I7">
-        <v>0.1251690374679614</v>
+        <v>0.1643301600451615</v>
       </c>
       <c r="J7">
-        <v>0.1251690374679614</v>
+        <v>0.1643301600451615</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.346324873991859</v>
+        <v>8.927132333333335</v>
       </c>
       <c r="N7">
-        <v>9.346324873991859</v>
+        <v>26.781397</v>
       </c>
       <c r="O7">
-        <v>0.4476158920754711</v>
+        <v>0.3544576984149831</v>
       </c>
       <c r="P7">
-        <v>0.4476158920754711</v>
+        <v>0.3544576984149831</v>
       </c>
       <c r="Q7">
-        <v>5.425557563314947</v>
+        <v>11.00710357991678</v>
       </c>
       <c r="R7">
-        <v>5.425557563314947</v>
+        <v>99.06393221925101</v>
       </c>
       <c r="S7">
-        <v>0.05602765036644963</v>
+        <v>0.05824809030977376</v>
       </c>
       <c r="T7">
-        <v>0.05602765036644963</v>
+        <v>0.05824809030977374</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5805017091169939</v>
+        <v>2.159122333333333</v>
       </c>
       <c r="H8">
-        <v>0.5805017091169939</v>
+        <v>6.477366999999999</v>
       </c>
       <c r="I8">
-        <v>0.1251690374679614</v>
+        <v>0.2877620026318713</v>
       </c>
       <c r="J8">
-        <v>0.1251690374679614</v>
+        <v>0.2877620026318713</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.21120802201027</v>
+        <v>12.64154566666667</v>
       </c>
       <c r="N8">
-        <v>1.21120802201027</v>
+        <v>37.924637</v>
       </c>
       <c r="O8">
-        <v>0.05800739505318912</v>
+        <v>0.5019409384896431</v>
       </c>
       <c r="P8">
-        <v>0.05800739505318912</v>
+        <v>0.5019409384896429</v>
       </c>
       <c r="Q8">
-        <v>0.7031083268731753</v>
+        <v>27.29464357675322</v>
       </c>
       <c r="R8">
-        <v>0.7031083268731753</v>
+        <v>245.651792190779</v>
       </c>
       <c r="S8">
-        <v>0.00726072980483147</v>
+        <v>0.1444395296627006</v>
       </c>
       <c r="T8">
-        <v>0.00726072980483147</v>
+        <v>0.1444395296627006</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5805017091169939</v>
+        <v>2.159122333333333</v>
       </c>
       <c r="H9">
-        <v>0.5805017091169939</v>
+        <v>6.477366999999999</v>
       </c>
       <c r="I9">
-        <v>0.1251690374679614</v>
+        <v>0.2877620026318713</v>
       </c>
       <c r="J9">
-        <v>0.1251690374679614</v>
+        <v>0.2877620026318713</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.838170222010083</v>
+        <v>1.291159666666667</v>
       </c>
       <c r="N9">
-        <v>0.838170222010083</v>
+        <v>3.873479</v>
       </c>
       <c r="O9">
-        <v>0.04014180083555115</v>
+        <v>0.05126634921989955</v>
       </c>
       <c r="P9">
-        <v>0.04014180083555115</v>
+        <v>0.05126634921989955</v>
       </c>
       <c r="Q9">
-        <v>0.4865592464078234</v>
+        <v>2.787771672199222</v>
       </c>
       <c r="R9">
-        <v>0.4865592464078234</v>
+        <v>25.089945049793</v>
       </c>
       <c r="S9">
-        <v>0.005024510572816548</v>
+        <v>0.01475250731914317</v>
       </c>
       <c r="T9">
-        <v>0.005024510572816548</v>
+        <v>0.01475250731914317</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5805017091169939</v>
+        <v>2.159122333333333</v>
       </c>
       <c r="H10">
-        <v>0.5805017091169939</v>
+        <v>6.477366999999999</v>
       </c>
       <c r="I10">
-        <v>0.1251690374679614</v>
+        <v>0.2877620026318713</v>
       </c>
       <c r="J10">
-        <v>0.1251690374679614</v>
+        <v>0.2877620026318713</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.664244299965148</v>
+        <v>0.97959</v>
       </c>
       <c r="N10">
-        <v>0.664244299965148</v>
+        <v>2.93877</v>
       </c>
       <c r="O10">
-        <v>0.03181210891912396</v>
+        <v>0.03889526936817373</v>
       </c>
       <c r="P10">
-        <v>0.03181210891912396</v>
+        <v>0.03889526936817372</v>
       </c>
       <c r="Q10">
-        <v>0.3855949514009896</v>
+        <v>2.11505464651</v>
       </c>
       <c r="R10">
-        <v>0.3855949514009896</v>
+        <v>19.03549181859</v>
       </c>
       <c r="S10">
-        <v>0.003981891053232697</v>
+        <v>0.01119258060629175</v>
       </c>
       <c r="T10">
-        <v>0.003981891053232697</v>
+        <v>0.01119258060629175</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5805017091169939</v>
+        <v>2.159122333333333</v>
       </c>
       <c r="H11">
-        <v>0.5805017091169939</v>
+        <v>6.477366999999999</v>
       </c>
       <c r="I11">
-        <v>0.1251690374679614</v>
+        <v>0.2877620026318713</v>
       </c>
       <c r="J11">
-        <v>0.1251690374679614</v>
+        <v>0.2877620026318713</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.82028726416392</v>
+        <v>1.079938333333333</v>
       </c>
       <c r="N11">
-        <v>8.82028726416392</v>
+        <v>3.239815</v>
       </c>
       <c r="O11">
-        <v>0.4224228031166647</v>
+        <v>0.04287966636655804</v>
       </c>
       <c r="P11">
-        <v>0.4224228031166647</v>
+        <v>0.04287966636655803</v>
       </c>
       <c r="Q11">
-        <v>5.12019183175001</v>
+        <v>2.331718974122777</v>
       </c>
       <c r="R11">
-        <v>5.12019183175001</v>
+        <v>20.985470767105</v>
       </c>
       <c r="S11">
-        <v>0.0528742556706311</v>
+        <v>0.01233913866582724</v>
       </c>
       <c r="T11">
-        <v>0.0528742556706311</v>
+        <v>0.01233913866582723</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.90620524268373</v>
+        <v>2.159122333333333</v>
       </c>
       <c r="H12">
-        <v>1.90620524268373</v>
+        <v>6.477366999999999</v>
       </c>
       <c r="I12">
-        <v>0.4110201084610716</v>
+        <v>0.2877620026318713</v>
       </c>
       <c r="J12">
-        <v>0.4110201084610716</v>
+        <v>0.2877620026318713</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>9.346324873991859</v>
+        <v>0.265959</v>
       </c>
       <c r="N12">
-        <v>9.346324873991859</v>
+        <v>0.7978769999999999</v>
       </c>
       <c r="O12">
-        <v>0.4476158920754711</v>
+        <v>0.01056007814074267</v>
       </c>
       <c r="P12">
-        <v>0.4476158920754711</v>
+        <v>0.01056007814074267</v>
       </c>
       <c r="Q12">
-        <v>17.81601347462863</v>
+        <v>0.5742380166509999</v>
       </c>
       <c r="R12">
-        <v>17.81601347462863</v>
+        <v>5.168142149858999</v>
       </c>
       <c r="S12">
-        <v>0.1839791325097595</v>
+        <v>0.00303878923372916</v>
       </c>
       <c r="T12">
-        <v>0.1839791325097595</v>
+        <v>0.00303878923372916</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.90620524268373</v>
+        <v>2.159122333333333</v>
       </c>
       <c r="H13">
-        <v>1.90620524268373</v>
+        <v>6.477366999999999</v>
       </c>
       <c r="I13">
-        <v>0.4110201084610716</v>
+        <v>0.2877620026318713</v>
       </c>
       <c r="J13">
-        <v>0.4110201084610716</v>
+        <v>0.2877620026318713</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.21120802201027</v>
+        <v>8.927132333333335</v>
       </c>
       <c r="N13">
-        <v>1.21120802201027</v>
+        <v>26.781397</v>
       </c>
       <c r="O13">
-        <v>0.05800739505318912</v>
+        <v>0.3544576984149831</v>
       </c>
       <c r="P13">
-        <v>0.05800739505318912</v>
+        <v>0.3544576984149831</v>
       </c>
       <c r="Q13">
-        <v>2.308811081536567</v>
+        <v>19.27477079352211</v>
       </c>
       <c r="R13">
-        <v>2.308811081536567</v>
+        <v>173.472937141699</v>
       </c>
       <c r="S13">
-        <v>0.02384220580630602</v>
+        <v>0.1019994571441794</v>
       </c>
       <c r="T13">
-        <v>0.02384220580630602</v>
+        <v>0.1019994571441794</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.90620524268373</v>
+        <v>0.6462516666666667</v>
       </c>
       <c r="H14">
-        <v>1.90620524268373</v>
+        <v>1.938755</v>
       </c>
       <c r="I14">
-        <v>0.4110201084610716</v>
+        <v>0.08613067955120557</v>
       </c>
       <c r="J14">
-        <v>0.4110201084610716</v>
+        <v>0.08613067955120557</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.838170222010083</v>
+        <v>12.64154566666667</v>
       </c>
       <c r="N14">
-        <v>0.838170222010083</v>
+        <v>37.924637</v>
       </c>
       <c r="O14">
-        <v>0.04014180083555115</v>
+        <v>0.5019409384896431</v>
       </c>
       <c r="P14">
-        <v>0.04014180083555115</v>
+        <v>0.5019409384896429</v>
       </c>
       <c r="Q14">
-        <v>1.597724471457006</v>
+        <v>8.169619956326112</v>
       </c>
       <c r="R14">
-        <v>1.597724471457006</v>
+        <v>73.526579606935</v>
       </c>
       <c r="S14">
-        <v>0.01649908733325097</v>
+        <v>0.04323251412668283</v>
       </c>
       <c r="T14">
-        <v>0.01649908733325097</v>
+        <v>0.04323251412668282</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.90620524268373</v>
+        <v>0.6462516666666667</v>
       </c>
       <c r="H15">
-        <v>1.90620524268373</v>
+        <v>1.938755</v>
       </c>
       <c r="I15">
-        <v>0.4110201084610716</v>
+        <v>0.08613067955120557</v>
       </c>
       <c r="J15">
-        <v>0.4110201084610716</v>
+        <v>0.08613067955120557</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.664244299965148</v>
+        <v>1.291159666666667</v>
       </c>
       <c r="N15">
-        <v>0.664244299965148</v>
+        <v>3.873479</v>
       </c>
       <c r="O15">
-        <v>0.03181210891912396</v>
+        <v>0.05126634921989955</v>
       </c>
       <c r="P15">
-        <v>0.03181210891912396</v>
+        <v>0.05126634921989955</v>
       </c>
       <c r="Q15">
-        <v>1.266185967016349</v>
+        <v>0.8344140865161112</v>
       </c>
       <c r="R15">
-        <v>1.266185967016349</v>
+        <v>7.509726778645001</v>
       </c>
       <c r="S15">
-        <v>0.01307541645831375</v>
+        <v>0.004415605496419366</v>
       </c>
       <c r="T15">
-        <v>0.01307541645831375</v>
+        <v>0.004415605496419366</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1396,1363 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.90620524268373</v>
+        <v>0.6462516666666667</v>
       </c>
       <c r="H16">
-        <v>1.90620524268373</v>
+        <v>1.938755</v>
       </c>
       <c r="I16">
-        <v>0.4110201084610716</v>
+        <v>0.08613067955120557</v>
       </c>
       <c r="J16">
-        <v>0.4110201084610716</v>
+        <v>0.08613067955120557</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.82028726416392</v>
+        <v>0.97959</v>
       </c>
       <c r="N16">
-        <v>8.82028726416392</v>
+        <v>2.93877</v>
       </c>
       <c r="O16">
-        <v>0.4224228031166647</v>
+        <v>0.03889526936817373</v>
       </c>
       <c r="P16">
-        <v>0.4224228031166647</v>
+        <v>0.03889526936817372</v>
       </c>
       <c r="Q16">
-        <v>16.8132778249258</v>
+        <v>0.6330616701499999</v>
       </c>
       <c r="R16">
-        <v>16.8132778249258</v>
+        <v>5.697555031349999</v>
       </c>
       <c r="S16">
-        <v>0.1736242663534414</v>
+        <v>0.003350075982007994</v>
       </c>
       <c r="T16">
-        <v>0.1736242663534414</v>
+        <v>0.003350075982007993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6462516666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.938755</v>
+      </c>
+      <c r="I17">
+        <v>0.08613067955120557</v>
+      </c>
+      <c r="J17">
+        <v>0.08613067955120557</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.079938333333333</v>
+      </c>
+      <c r="N17">
+        <v>3.239815</v>
+      </c>
+      <c r="O17">
+        <v>0.04287966636655804</v>
+      </c>
+      <c r="P17">
+        <v>0.04287966636655803</v>
+      </c>
+      <c r="Q17">
+        <v>0.6979119478138888</v>
+      </c>
+      <c r="R17">
+        <v>6.281207530324999</v>
+      </c>
+      <c r="S17">
+        <v>0.003693254803080618</v>
+      </c>
+      <c r="T17">
+        <v>0.003693254803080617</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.6462516666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.938755</v>
+      </c>
+      <c r="I18">
+        <v>0.08613067955120557</v>
+      </c>
+      <c r="J18">
+        <v>0.08613067955120557</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.265959</v>
+      </c>
+      <c r="N18">
+        <v>0.7978769999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.01056007814074267</v>
+      </c>
+      <c r="P18">
+        <v>0.01056007814074267</v>
+      </c>
+      <c r="Q18">
+        <v>0.171876447015</v>
+      </c>
+      <c r="R18">
+        <v>1.546888023135</v>
+      </c>
+      <c r="S18">
+        <v>0.0009095467063759981</v>
+      </c>
+      <c r="T18">
+        <v>0.0009095467063759979</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.6462516666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.938755</v>
+      </c>
+      <c r="I19">
+        <v>0.08613067955120557</v>
+      </c>
+      <c r="J19">
+        <v>0.08613067955120557</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>8.927132333333335</v>
+      </c>
+      <c r="N19">
+        <v>26.781397</v>
+      </c>
+      <c r="O19">
+        <v>0.3544576984149831</v>
+      </c>
+      <c r="P19">
+        <v>0.3544576984149831</v>
+      </c>
+      <c r="Q19">
+        <v>5.769174148970556</v>
+      </c>
+      <c r="R19">
+        <v>51.92256734073501</v>
+      </c>
+      <c r="S19">
+        <v>0.03052968243663878</v>
+      </c>
+      <c r="T19">
+        <v>0.03052968243663878</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>1.312594</v>
+      </c>
+      <c r="H20">
+        <v>3.937782</v>
+      </c>
+      <c r="I20">
+        <v>0.1749389889823652</v>
+      </c>
+      <c r="J20">
+        <v>0.1749389889823652</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>12.64154566666667</v>
+      </c>
+      <c r="N20">
+        <v>37.924637</v>
+      </c>
+      <c r="O20">
+        <v>0.5019409384896431</v>
+      </c>
+      <c r="P20">
+        <v>0.5019409384896429</v>
+      </c>
+      <c r="Q20">
+        <v>16.59321699279267</v>
+      </c>
+      <c r="R20">
+        <v>149.338952935134</v>
+      </c>
+      <c r="S20">
+        <v>0.0878090403082377</v>
+      </c>
+      <c r="T20">
+        <v>0.08780904030823768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.312594</v>
+      </c>
+      <c r="H21">
+        <v>3.937782</v>
+      </c>
+      <c r="I21">
+        <v>0.1749389889823652</v>
+      </c>
+      <c r="J21">
+        <v>0.1749389889823652</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.291159666666667</v>
+      </c>
+      <c r="N21">
+        <v>3.873479</v>
+      </c>
+      <c r="O21">
+        <v>0.05126634921989955</v>
+      </c>
+      <c r="P21">
+        <v>0.05126634921989955</v>
+      </c>
+      <c r="Q21">
+        <v>1.694768431508667</v>
+      </c>
+      <c r="R21">
+        <v>15.252915883578</v>
+      </c>
+      <c r="S21">
+        <v>0.008968483301346093</v>
+      </c>
+      <c r="T21">
+        <v>0.008968483301346091</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>1.312594</v>
+      </c>
+      <c r="H22">
+        <v>3.937782</v>
+      </c>
+      <c r="I22">
+        <v>0.1749389889823652</v>
+      </c>
+      <c r="J22">
+        <v>0.1749389889823652</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.97959</v>
+      </c>
+      <c r="N22">
+        <v>2.93877</v>
+      </c>
+      <c r="O22">
+        <v>0.03889526936817373</v>
+      </c>
+      <c r="P22">
+        <v>0.03889526936817372</v>
+      </c>
+      <c r="Q22">
+        <v>1.28580395646</v>
+      </c>
+      <c r="R22">
+        <v>11.57223560814</v>
+      </c>
+      <c r="S22">
+        <v>0.00680429909946507</v>
+      </c>
+      <c r="T22">
+        <v>0.006804299099465068</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>1.312594</v>
+      </c>
+      <c r="H23">
+        <v>3.937782</v>
+      </c>
+      <c r="I23">
+        <v>0.1749389889823652</v>
+      </c>
+      <c r="J23">
+        <v>0.1749389889823652</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.079938333333333</v>
+      </c>
+      <c r="N23">
+        <v>3.239815</v>
+      </c>
+      <c r="O23">
+        <v>0.04287966636655804</v>
+      </c>
+      <c r="P23">
+        <v>0.04287966636655803</v>
+      </c>
+      <c r="Q23">
+        <v>1.417520576703333</v>
+      </c>
+      <c r="R23">
+        <v>12.75768519033</v>
+      </c>
+      <c r="S23">
+        <v>0.007501325482066792</v>
+      </c>
+      <c r="T23">
+        <v>0.007501325482066789</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>1.312594</v>
+      </c>
+      <c r="H24">
+        <v>3.937782</v>
+      </c>
+      <c r="I24">
+        <v>0.1749389889823652</v>
+      </c>
+      <c r="J24">
+        <v>0.1749389889823652</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.265959</v>
+      </c>
+      <c r="N24">
+        <v>0.7978769999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.01056007814074267</v>
+      </c>
+      <c r="P24">
+        <v>0.01056007814074267</v>
+      </c>
+      <c r="Q24">
+        <v>0.349096187646</v>
+      </c>
+      <c r="R24">
+        <v>3.141865688814</v>
+      </c>
+      <c r="S24">
+        <v>0.001847369393516298</v>
+      </c>
+      <c r="T24">
+        <v>0.001847369393516298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>1.312594</v>
+      </c>
+      <c r="H25">
+        <v>3.937782</v>
+      </c>
+      <c r="I25">
+        <v>0.1749389889823652</v>
+      </c>
+      <c r="J25">
+        <v>0.1749389889823652</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>8.927132333333335</v>
+      </c>
+      <c r="N25">
+        <v>26.781397</v>
+      </c>
+      <c r="O25">
+        <v>0.3544576984149831</v>
+      </c>
+      <c r="P25">
+        <v>0.3544576984149831</v>
+      </c>
+      <c r="Q25">
+        <v>11.71770033793934</v>
+      </c>
+      <c r="R25">
+        <v>105.459303041454</v>
+      </c>
+      <c r="S25">
+        <v>0.06200847139773326</v>
+      </c>
+      <c r="T25">
+        <v>0.06200847139773324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.09591499999999999</v>
+      </c>
+      <c r="H26">
+        <v>0.287745</v>
+      </c>
+      <c r="I26">
+        <v>0.01278329257047004</v>
+      </c>
+      <c r="J26">
+        <v>0.01278329257047004</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>12.64154566666667</v>
+      </c>
+      <c r="N26">
+        <v>37.924637</v>
+      </c>
+      <c r="O26">
+        <v>0.5019409384896431</v>
+      </c>
+      <c r="P26">
+        <v>0.5019409384896429</v>
+      </c>
+      <c r="Q26">
+        <v>1.212513852618333</v>
+      </c>
+      <c r="R26">
+        <v>10.912624673565</v>
+      </c>
+      <c r="S26">
+        <v>0.006416457869809414</v>
+      </c>
+      <c r="T26">
+        <v>0.006416457869809412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.09591499999999999</v>
+      </c>
+      <c r="H27">
+        <v>0.287745</v>
+      </c>
+      <c r="I27">
+        <v>0.01278329257047004</v>
+      </c>
+      <c r="J27">
+        <v>0.01278329257047004</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.291159666666667</v>
+      </c>
+      <c r="N27">
+        <v>3.873479</v>
+      </c>
+      <c r="O27">
+        <v>0.05126634921989955</v>
+      </c>
+      <c r="P27">
+        <v>0.05126634921989955</v>
+      </c>
+      <c r="Q27">
+        <v>0.1238415794283333</v>
+      </c>
+      <c r="R27">
+        <v>1.114574214855</v>
+      </c>
+      <c r="S27">
+        <v>0.0006553527410978645</v>
+      </c>
+      <c r="T27">
+        <v>0.0006553527410978645</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.09591499999999999</v>
+      </c>
+      <c r="H28">
+        <v>0.287745</v>
+      </c>
+      <c r="I28">
+        <v>0.01278329257047004</v>
+      </c>
+      <c r="J28">
+        <v>0.01278329257047004</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.97959</v>
+      </c>
+      <c r="N28">
+        <v>2.93877</v>
+      </c>
+      <c r="O28">
+        <v>0.03889526936817373</v>
+      </c>
+      <c r="P28">
+        <v>0.03889526936817372</v>
+      </c>
+      <c r="Q28">
+        <v>0.09395737484999998</v>
+      </c>
+      <c r="R28">
+        <v>0.8456163736499999</v>
+      </c>
+      <c r="S28">
+        <v>0.0004972096079406063</v>
+      </c>
+      <c r="T28">
+        <v>0.0004972096079406061</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.09591499999999999</v>
+      </c>
+      <c r="H29">
+        <v>0.287745</v>
+      </c>
+      <c r="I29">
+        <v>0.01278329257047004</v>
+      </c>
+      <c r="J29">
+        <v>0.01278329257047004</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.079938333333333</v>
+      </c>
+      <c r="N29">
+        <v>3.239815</v>
+      </c>
+      <c r="O29">
+        <v>0.04287966636655804</v>
+      </c>
+      <c r="P29">
+        <v>0.04287966636655803</v>
+      </c>
+      <c r="Q29">
+        <v>0.1035822852416666</v>
+      </c>
+      <c r="R29">
+        <v>0.9322405671749998</v>
+      </c>
+      <c r="S29">
+        <v>0.0005481433204878555</v>
+      </c>
+      <c r="T29">
+        <v>0.0005481433204878554</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.09591499999999999</v>
+      </c>
+      <c r="H30">
+        <v>0.287745</v>
+      </c>
+      <c r="I30">
+        <v>0.01278329257047004</v>
+      </c>
+      <c r="J30">
+        <v>0.01278329257047004</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.265959</v>
+      </c>
+      <c r="N30">
+        <v>0.7978769999999999</v>
+      </c>
+      <c r="O30">
+        <v>0.01056007814074267</v>
+      </c>
+      <c r="P30">
+        <v>0.01056007814074267</v>
+      </c>
+      <c r="Q30">
+        <v>0.025509457485</v>
+      </c>
+      <c r="R30">
+        <v>0.229585117365</v>
+      </c>
+      <c r="S30">
+        <v>0.0001349925684401389</v>
+      </c>
+      <c r="T30">
+        <v>0.0001349925684401389</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.09591499999999999</v>
+      </c>
+      <c r="H31">
+        <v>0.287745</v>
+      </c>
+      <c r="I31">
+        <v>0.01278329257047004</v>
+      </c>
+      <c r="J31">
+        <v>0.01278329257047004</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>8.927132333333335</v>
+      </c>
+      <c r="N31">
+        <v>26.781397</v>
+      </c>
+      <c r="O31">
+        <v>0.3544576984149831</v>
+      </c>
+      <c r="P31">
+        <v>0.3544576984149831</v>
+      </c>
+      <c r="Q31">
+        <v>0.8562458977516667</v>
+      </c>
+      <c r="R31">
+        <v>7.706213079765</v>
+      </c>
+      <c r="S31">
+        <v>0.004531136462694164</v>
+      </c>
+      <c r="T31">
+        <v>0.004531136462694164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2.056275666666667</v>
+      </c>
+      <c r="H32">
+        <v>6.168827</v>
+      </c>
+      <c r="I32">
+        <v>0.2740548762189265</v>
+      </c>
+      <c r="J32">
+        <v>0.2740548762189265</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>12.64154566666667</v>
+      </c>
+      <c r="N32">
+        <v>37.924637</v>
+      </c>
+      <c r="O32">
+        <v>0.5019409384896431</v>
+      </c>
+      <c r="P32">
+        <v>0.5019409384896429</v>
+      </c>
+      <c r="Q32">
+        <v>25.99450274342211</v>
+      </c>
+      <c r="R32">
+        <v>233.950524690799</v>
+      </c>
+      <c r="S32">
+        <v>0.1375593617669909</v>
+      </c>
+      <c r="T32">
+        <v>0.1375593617669909</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2.056275666666667</v>
+      </c>
+      <c r="H33">
+        <v>6.168827</v>
+      </c>
+      <c r="I33">
+        <v>0.2740548762189265</v>
+      </c>
+      <c r="J33">
+        <v>0.2740548762189265</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.291159666666667</v>
+      </c>
+      <c r="N33">
+        <v>3.873479</v>
+      </c>
+      <c r="O33">
+        <v>0.05126634921989955</v>
+      </c>
+      <c r="P33">
+        <v>0.05126634921989955</v>
+      </c>
+      <c r="Q33">
+        <v>2.654980204348111</v>
+      </c>
+      <c r="R33">
+        <v>23.894821839133</v>
+      </c>
+      <c r="S33">
+        <v>0.01404979298965583</v>
+      </c>
+      <c r="T33">
+        <v>0.01404979298965583</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2.056275666666667</v>
+      </c>
+      <c r="H34">
+        <v>6.168827</v>
+      </c>
+      <c r="I34">
+        <v>0.2740548762189265</v>
+      </c>
+      <c r="J34">
+        <v>0.2740548762189265</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.97959</v>
+      </c>
+      <c r="N34">
+        <v>2.93877</v>
+      </c>
+      <c r="O34">
+        <v>0.03889526936817373</v>
+      </c>
+      <c r="P34">
+        <v>0.03889526936817372</v>
+      </c>
+      <c r="Q34">
+        <v>2.01430708031</v>
+      </c>
+      <c r="R34">
+        <v>18.12876372279</v>
+      </c>
+      <c r="S34">
+        <v>0.01065943823219665</v>
+      </c>
+      <c r="T34">
+        <v>0.01065943823219665</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2.056275666666667</v>
+      </c>
+      <c r="H35">
+        <v>6.168827</v>
+      </c>
+      <c r="I35">
+        <v>0.2740548762189265</v>
+      </c>
+      <c r="J35">
+        <v>0.2740548762189265</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.079938333333333</v>
+      </c>
+      <c r="N35">
+        <v>3.239815</v>
+      </c>
+      <c r="O35">
+        <v>0.04287966636655804</v>
+      </c>
+      <c r="P35">
+        <v>0.04287966636655803</v>
+      </c>
+      <c r="Q35">
+        <v>2.220650916333889</v>
+      </c>
+      <c r="R35">
+        <v>19.985858247005</v>
+      </c>
+      <c r="S35">
+        <v>0.01175138165839593</v>
+      </c>
+      <c r="T35">
+        <v>0.01175138165839593</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2.056275666666667</v>
+      </c>
+      <c r="H36">
+        <v>6.168827</v>
+      </c>
+      <c r="I36">
+        <v>0.2740548762189265</v>
+      </c>
+      <c r="J36">
+        <v>0.2740548762189265</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.265959</v>
+      </c>
+      <c r="N36">
+        <v>0.7978769999999999</v>
+      </c>
+      <c r="O36">
+        <v>0.01056007814074267</v>
+      </c>
+      <c r="P36">
+        <v>0.01056007814074267</v>
+      </c>
+      <c r="Q36">
+        <v>0.546885020031</v>
+      </c>
+      <c r="R36">
+        <v>4.921965180279</v>
+      </c>
+      <c r="S36">
+        <v>0.002894040907723425</v>
+      </c>
+      <c r="T36">
+        <v>0.002894040907723425</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2.056275666666667</v>
+      </c>
+      <c r="H37">
+        <v>6.168827</v>
+      </c>
+      <c r="I37">
+        <v>0.2740548762189265</v>
+      </c>
+      <c r="J37">
+        <v>0.2740548762189265</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>8.927132333333335</v>
+      </c>
+      <c r="N37">
+        <v>26.781397</v>
+      </c>
+      <c r="O37">
+        <v>0.3544576984149831</v>
+      </c>
+      <c r="P37">
+        <v>0.3544576984149831</v>
+      </c>
+      <c r="Q37">
+        <v>18.35664499014656</v>
+      </c>
+      <c r="R37">
+        <v>165.209804911319</v>
+      </c>
+      <c r="S37">
+        <v>0.09714086066396378</v>
+      </c>
+      <c r="T37">
+        <v>0.09714086066396377</v>
       </c>
     </row>
   </sheetData>
